--- a/심리예측모델성능정리.xlsx
+++ b/심리예측모델성능정리.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Monthly-Dacon-8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7CA34-F699-411B-AC9C-CB392CC800CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B94F99-649D-4260-BFA9-B4131E5818E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AB000A1B-CA12-4661-AAFB-3B24B10E8644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AB000A1B-CA12-4661-AAFB-3B24B10E8644}"/>
   </bookViews>
   <sheets>
     <sheet name="CatBoost" sheetId="1" r:id="rId1"/>
     <sheet name="LightGBM" sheetId="2" r:id="rId2"/>
+    <sheet name="final Score" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="104">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -449,6 +450,10 @@
     <t>learningRate = c(0.02, 0.04, 0.06),
   maxDepth  = c(7),
   booster     = c('gbdt')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>final Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,17 +632,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3455BB-235A-4091-9437-AA3AFEC3ED69}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B89"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -988,14 +993,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -4132,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78974200-6D91-42FF-B72D-F3042B01C20A}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4167,7 +4172,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -5930,19 +5935,19 @@
       <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5967,4 +5972,1022 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C11D4A-9287-44A2-8202-D3D7392E251D}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.77857582759999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/심리예측모델성능정리.xlsx
+++ b/심리예측모델성능정리.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Monthly-Dacon-8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B94F99-649D-4260-BFA9-B4131E5818E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8812BC93-4D57-4248-9434-CF8715F44C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AB000A1B-CA12-4661-AAFB-3B24B10E8644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AB000A1B-CA12-4661-AAFB-3B24B10E8644}"/>
   </bookViews>
   <sheets>
     <sheet name="CatBoost" sheetId="1" r:id="rId1"/>
     <sheet name="LightGBM" sheetId="2" r:id="rId2"/>
-    <sheet name="final Score" sheetId="3" r:id="rId3"/>
+    <sheet name="CatBoost + LightGBM" sheetId="4" r:id="rId3"/>
+    <sheet name="final Score" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="105">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -456,6 +457,10 @@
     <t>final Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>65개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +648,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3455BB-235A-4091-9437-AA3AFEC3ED69}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -969,9 +977,11 @@
     <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" customWidth="1"/>
+    <col min="13" max="13" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1011,14 @@
         <v>99</v>
       </c>
       <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1036,8 +1052,14 @@
       <c r="K2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1093,14 @@
       <c r="K3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1106,8 +1134,14 @@
       <c r="K4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1175,14 @@
       <c r="K5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,8 +1216,14 @@
       <c r="K6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="K7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1246,8 +1298,14 @@
       <c r="K8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1281,8 +1339,14 @@
       <c r="K9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1316,8 +1380,14 @@
       <c r="K10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1351,8 +1421,14 @@
       <c r="K11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1386,8 +1462,14 @@
       <c r="K12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1421,8 +1503,14 @@
       <c r="K13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1456,8 +1544,14 @@
       <c r="K14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1491,8 +1585,14 @@
       <c r="K15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1526,8 +1626,14 @@
       <c r="K16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1561,8 +1667,14 @@
       <c r="K17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1596,8 +1708,14 @@
       <c r="K18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1631,8 +1749,14 @@
       <c r="K19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1666,8 +1790,14 @@
       <c r="K20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1701,8 +1831,14 @@
       <c r="K21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1736,8 +1872,14 @@
       <c r="K22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1771,8 +1913,14 @@
       <c r="K23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1954,14 @@
       <c r="K24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1841,8 +1995,14 @@
       <c r="K25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1876,8 +2036,14 @@
       <c r="K26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1911,8 +2077,14 @@
       <c r="K27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1946,8 +2118,14 @@
       <c r="K28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1981,8 +2159,14 @@
       <c r="K29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2016,8 +2200,14 @@
       <c r="K30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2051,8 +2241,14 @@
       <c r="K31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2086,8 +2282,14 @@
       <c r="K32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2121,8 +2323,14 @@
       <c r="K33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2156,8 +2364,14 @@
       <c r="K34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2191,8 +2405,14 @@
       <c r="K35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2226,8 +2446,14 @@
       <c r="K36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2261,8 +2487,14 @@
       <c r="K37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2296,8 +2528,14 @@
       <c r="K38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L38" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2331,8 +2569,14 @@
       <c r="K39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2366,8 +2610,14 @@
       <c r="K40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L40" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2401,8 +2651,14 @@
       <c r="K41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2436,8 +2692,14 @@
       <c r="K42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2471,8 +2733,14 @@
       <c r="K43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2506,8 +2774,14 @@
       <c r="K44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L44" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2541,8 +2815,14 @@
       <c r="K45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2576,8 +2856,14 @@
       <c r="K46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2611,8 +2897,14 @@
       <c r="K47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2646,8 +2938,14 @@
       <c r="K48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2681,8 +2979,14 @@
       <c r="K49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L49" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2716,8 +3020,14 @@
       <c r="K50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L50" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2751,8 +3061,14 @@
       <c r="K51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L51" t="s">
+        <v>91</v>
+      </c>
+      <c r="M51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2786,8 +3102,14 @@
       <c r="K52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52" t="s">
+        <v>91</v>
+      </c>
+      <c r="M52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2821,8 +3143,14 @@
       <c r="K53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2856,8 +3184,14 @@
       <c r="K54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L54" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2891,8 +3225,14 @@
       <c r="K55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L55" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3266,14 @@
       <c r="K56" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L56" t="s">
+        <v>91</v>
+      </c>
+      <c r="M56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2961,8 +3307,14 @@
       <c r="K57" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L57" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2996,8 +3348,14 @@
       <c r="K58" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L58" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3031,8 +3389,14 @@
       <c r="K59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L59" t="s">
+        <v>91</v>
+      </c>
+      <c r="M59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -3066,8 +3430,14 @@
       <c r="K60" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L60" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3101,8 +3471,14 @@
       <c r="K61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -3136,8 +3512,14 @@
       <c r="K62" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L62" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -3171,8 +3553,14 @@
       <c r="K63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L63" t="s">
+        <v>91</v>
+      </c>
+      <c r="M63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -3206,8 +3594,14 @@
       <c r="K64" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L64" t="s">
+        <v>91</v>
+      </c>
+      <c r="M64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -3241,8 +3635,14 @@
       <c r="K65" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L65" t="s">
+        <v>91</v>
+      </c>
+      <c r="M65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -3276,8 +3676,14 @@
       <c r="K66" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L66" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3311,8 +3717,14 @@
       <c r="K67" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L67" t="s">
+        <v>91</v>
+      </c>
+      <c r="M67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -3346,8 +3758,14 @@
       <c r="K68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L68" t="s">
+        <v>91</v>
+      </c>
+      <c r="M68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -3381,8 +3799,14 @@
       <c r="K69" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L69" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -3416,8 +3840,14 @@
       <c r="K70" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -3451,8 +3881,14 @@
       <c r="K71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L71" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -3486,8 +3922,14 @@
       <c r="K72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L72" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -3521,8 +3963,14 @@
       <c r="K73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L73" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -3556,8 +4004,14 @@
       <c r="K74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L74" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4045,14 @@
       <c r="K75" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L75" t="s">
+        <v>91</v>
+      </c>
+      <c r="M75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +4086,14 @@
       <c r="K76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L76" t="s">
+        <v>91</v>
+      </c>
+      <c r="M76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -3661,8 +4127,14 @@
       <c r="K77" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L77" t="s">
+        <v>91</v>
+      </c>
+      <c r="M77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -3696,8 +4168,14 @@
       <c r="K78" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L78" t="s">
+        <v>90</v>
+      </c>
+      <c r="M78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4209,14 @@
       <c r="K79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L79" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -3766,8 +4250,14 @@
       <c r="K80" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -3801,8 +4291,14 @@
       <c r="K81" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -3836,8 +4332,14 @@
       <c r="K82" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L82" t="s">
+        <v>90</v>
+      </c>
+      <c r="M82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -3871,8 +4373,14 @@
       <c r="K83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L83" t="s">
+        <v>92</v>
+      </c>
+      <c r="M83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -3906,8 +4414,14 @@
       <c r="K84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L84" t="s">
+        <v>92</v>
+      </c>
+      <c r="M84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -3941,8 +4455,14 @@
       <c r="K85" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L85" t="s">
+        <v>90</v>
+      </c>
+      <c r="M85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -3976,8 +4496,14 @@
       <c r="K86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L86" t="s">
+        <v>92</v>
+      </c>
+      <c r="M86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -4011,8 +4537,14 @@
       <c r="K87" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
@@ -4046,8 +4578,14 @@
       <c r="K88" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>93</v>
       </c>
@@ -4081,13 +4619,19 @@
       <c r="K89" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L89" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -4115,8 +4659,14 @@
       <c r="K91">
         <v>0.77292019999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L91">
+        <v>0.77136099999999996</v>
+      </c>
+      <c r="M91">
+        <v>0.77120029999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" t="s">
         <v>96</v>
@@ -4135,10 +4685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78974200-6D91-42FF-B72D-F3042B01C20A}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4148,10 +4698,10 @@
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="6" width="28.796875" customWidth="1"/>
+    <col min="6" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4170,8 +4720,14 @@
       <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4190,8 +4746,14 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4772,14 @@
       <c r="F3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4230,8 +4798,14 @@
       <c r="F4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4250,8 +4824,14 @@
       <c r="F5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4270,8 +4850,14 @@
       <c r="F6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4290,8 +4876,14 @@
       <c r="F7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4310,8 +4902,14 @@
       <c r="F8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -4330,8 +4928,14 @@
       <c r="F9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4350,8 +4954,14 @@
       <c r="F10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4370,8 +4980,14 @@
       <c r="F11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4390,8 +5006,14 @@
       <c r="F12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4410,8 +5032,14 @@
       <c r="F13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4430,8 +5058,14 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -4450,8 +5084,14 @@
       <c r="F15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -4470,8 +5110,14 @@
       <c r="F16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -4490,8 +5136,14 @@
       <c r="F17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -4510,8 +5162,14 @@
       <c r="F18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -4530,8 +5188,14 @@
       <c r="F19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -4550,8 +5214,14 @@
       <c r="F20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -4570,8 +5240,14 @@
       <c r="F21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -4590,8 +5266,14 @@
       <c r="F22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4610,8 +5292,14 @@
       <c r="F23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -4630,8 +5318,14 @@
       <c r="F24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4650,8 +5344,14 @@
       <c r="F25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4670,8 +5370,14 @@
       <c r="F26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4690,8 +5396,14 @@
       <c r="F27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4710,8 +5422,14 @@
       <c r="F28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -4730,8 +5448,14 @@
       <c r="F29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -4750,8 +5474,14 @@
       <c r="F30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -4770,8 +5500,14 @@
       <c r="F31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -4790,8 +5526,14 @@
       <c r="F32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -4810,8 +5552,14 @@
       <c r="F33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -4830,8 +5578,14 @@
       <c r="F34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -4850,8 +5604,14 @@
       <c r="F35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -4870,8 +5630,14 @@
       <c r="F36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -4890,8 +5656,14 @@
       <c r="F37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -4910,8 +5682,14 @@
       <c r="F38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -4930,8 +5708,14 @@
       <c r="F39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -4950,8 +5734,14 @@
       <c r="F40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -4970,8 +5760,14 @@
       <c r="F41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -4990,8 +5786,14 @@
       <c r="F42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -5010,8 +5812,14 @@
       <c r="F43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -5030,8 +5838,14 @@
       <c r="F44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -5050,8 +5864,14 @@
       <c r="F45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -5070,8 +5890,14 @@
       <c r="F46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -5090,8 +5916,14 @@
       <c r="F47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -5110,8 +5942,14 @@
       <c r="F48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -5130,8 +5968,14 @@
       <c r="F49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -5150,8 +5994,14 @@
       <c r="F50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -5170,8 +6020,14 @@
       <c r="F51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -5190,8 +6046,14 @@
       <c r="F52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -5210,8 +6072,14 @@
       <c r="F53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -5230,8 +6098,14 @@
       <c r="F54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -5250,8 +6124,14 @@
       <c r="F55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -5270,8 +6150,14 @@
       <c r="F56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -5290,8 +6176,14 @@
       <c r="F57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -5310,8 +6202,14 @@
       <c r="F58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -5330,8 +6228,14 @@
       <c r="F59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -5350,8 +6254,14 @@
       <c r="F60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -5370,8 +6280,14 @@
       <c r="F61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -5390,8 +6306,14 @@
       <c r="F62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -5410,8 +6332,14 @@
       <c r="F63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5430,8 +6358,14 @@
       <c r="F64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -5450,8 +6384,14 @@
       <c r="F65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -5470,8 +6410,14 @@
       <c r="F66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -5490,8 +6436,14 @@
       <c r="F67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -5510,8 +6462,14 @@
       <c r="F68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -5530,8 +6488,14 @@
       <c r="F69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -5550,8 +6514,14 @@
       <c r="F70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -5570,8 +6540,14 @@
       <c r="F71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -5590,8 +6566,14 @@
       <c r="F72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -5610,8 +6592,14 @@
       <c r="F73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6618,14 @@
       <c r="F74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -5650,8 +6644,14 @@
       <c r="F75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -5670,8 +6670,14 @@
       <c r="F76" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -5690,8 +6696,14 @@
       <c r="F77" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -5710,8 +6722,14 @@
       <c r="F78" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -5730,8 +6748,14 @@
       <c r="F79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -5750,8 +6774,14 @@
       <c r="F80" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -5770,8 +6800,14 @@
       <c r="F81" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -5790,8 +6826,14 @@
       <c r="F82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -5810,8 +6852,14 @@
       <c r="F83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -5830,8 +6878,14 @@
       <c r="F84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6904,14 @@
       <c r="F85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -5870,8 +6930,14 @@
       <c r="F86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -5890,8 +6956,14 @@
       <c r="F87" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
@@ -5910,8 +6982,14 @@
       <c r="F88" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>93</v>
       </c>
@@ -5930,8 +7008,14 @@
       <c r="F89" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="G89" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
@@ -5950,8 +7034,14 @@
       <c r="F90" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5966,6 +7056,12 @@
       </c>
       <c r="F91">
         <v>0.76969670000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.77003239999999995</v>
+      </c>
+      <c r="H91">
+        <v>0.76956800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5975,12 +7071,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D675A1D-8C2C-413A-B82C-A2327F8E213E}">
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="28.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0.77225690000000002</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92">
+        <v>0.77248939999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C11D4A-9287-44A2-8202-D3D7392E251D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5988,9 +8650,15 @@
     <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" customWidth="1"/>
+    <col min="7" max="7" width="28.09765625" customWidth="1"/>
+    <col min="8" max="8" width="23.69921875" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6000,8 +8668,26 @@
       <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6011,8 +8697,26 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6022,8 +8726,26 @@
       <c r="C3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -6033,8 +8755,26 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -6044,8 +8784,26 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6055,8 +8813,26 @@
       <c r="C6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6066,8 +8842,26 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -6077,8 +8871,26 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6088,8 +8900,26 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -6099,8 +8929,26 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -6110,8 +8958,26 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6121,8 +8987,26 @@
       <c r="C12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6132,8 +9016,26 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -6143,8 +9045,26 @@
       <c r="C14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -6154,8 +9074,26 @@
       <c r="C15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -6165,8 +9103,26 @@
       <c r="C16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -6176,8 +9132,26 @@
       <c r="C17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -6187,8 +9161,26 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -6198,8 +9190,26 @@
       <c r="C19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -6209,8 +9219,26 @@
       <c r="C20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -6220,8 +9248,26 @@
       <c r="C21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -6231,8 +9277,26 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -6242,8 +9306,26 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -6253,8 +9335,26 @@
       <c r="C24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -6264,8 +9364,26 @@
       <c r="C25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -6275,8 +9393,26 @@
       <c r="C26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -6286,8 +9422,26 @@
       <c r="C27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -6297,8 +9451,26 @@
       <c r="C28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -6308,8 +9480,26 @@
       <c r="C29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -6319,8 +9509,26 @@
       <c r="C30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -6330,8 +9538,26 @@
       <c r="C31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -6341,8 +9567,26 @@
       <c r="C32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -6352,8 +9596,26 @@
       <c r="C33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -6363,8 +9625,26 @@
       <c r="C34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -6374,8 +9654,26 @@
       <c r="C35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -6385,8 +9683,26 @@
       <c r="C36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -6396,8 +9712,26 @@
       <c r="C37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -6407,8 +9741,26 @@
       <c r="C38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -6418,8 +9770,26 @@
       <c r="C39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -6429,8 +9799,26 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -6440,8 +9828,26 @@
       <c r="C41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -6451,8 +9857,26 @@
       <c r="C42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -6462,8 +9886,26 @@
       <c r="C43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -6473,8 +9915,26 @@
       <c r="C44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -6484,8 +9944,26 @@
       <c r="C45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -6495,8 +9973,26 @@
       <c r="C46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -6506,8 +10002,26 @@
       <c r="C47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -6517,8 +10031,26 @@
       <c r="C48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -6528,8 +10060,26 @@
       <c r="C49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -6539,8 +10089,26 @@
       <c r="C50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -6550,8 +10118,26 @@
       <c r="C51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -6561,8 +10147,26 @@
       <c r="C52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -6572,8 +10176,26 @@
       <c r="C53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -6583,8 +10205,26 @@
       <c r="C54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -6594,8 +10234,26 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -6605,8 +10263,26 @@
       <c r="C56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -6616,8 +10292,26 @@
       <c r="C57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -6627,8 +10321,26 @@
       <c r="C58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -6638,8 +10350,26 @@
       <c r="C59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -6649,8 +10379,26 @@
       <c r="C60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -6660,8 +10408,26 @@
       <c r="C61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -6671,8 +10437,26 @@
       <c r="C62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -6682,8 +10466,26 @@
       <c r="C63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -6693,8 +10495,26 @@
       <c r="C64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -6704,8 +10524,26 @@
       <c r="C65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -6715,8 +10553,26 @@
       <c r="C66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -6726,8 +10582,26 @@
       <c r="C67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -6737,8 +10611,26 @@
       <c r="C68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -6748,8 +10640,26 @@
       <c r="C69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -6759,8 +10669,26 @@
       <c r="C70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -6770,8 +10698,26 @@
       <c r="C71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -6781,8 +10727,26 @@
       <c r="C72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -6792,8 +10756,26 @@
       <c r="C73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6803,8 +10785,26 @@
       <c r="C74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6814,8 +10814,26 @@
       <c r="C75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s">
+        <v>91</v>
+      </c>
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6825,8 +10843,26 @@
       <c r="C76" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6836,8 +10872,26 @@
       <c r="C77" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s">
+        <v>91</v>
+      </c>
+      <c r="I77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6847,8 +10901,26 @@
       <c r="C78" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6858,8 +10930,26 @@
       <c r="C79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -6869,8 +10959,26 @@
       <c r="C80" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -6880,8 +10988,26 @@
       <c r="C81" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -6891,8 +11017,26 @@
       <c r="C82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -6902,8 +11046,26 @@
       <c r="C83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -6913,8 +11075,26 @@
       <c r="C84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D84" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -6924,8 +11104,26 @@
       <c r="C85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -6935,8 +11133,26 @@
       <c r="C86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +11162,26 @@
       <c r="C87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
@@ -6957,8 +11191,26 @@
       <c r="C88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>93</v>
       </c>
@@ -6968,21 +11220,57 @@
       <c r="C89" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="8">
         <v>0.77857582759999999</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.77740231640000002</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.77873184539999996</v>
+      </c>
+      <c r="I94" s="8">
+        <v>0.77790639859999999</v>
       </c>
     </row>
   </sheetData>

--- a/심리예측모델성능정리.xlsx
+++ b/심리예측모델성능정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Monthly-Dacon-8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8812BC93-4D57-4248-9434-CF8715F44C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93C320-7ED5-45D1-9386-7AE8277D36A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AB000A1B-CA12-4661-AAFB-3B24B10E8644}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="110">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -461,12 +461,27 @@
     <t>65개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>tp_Extra</t>
+  </si>
+  <si>
+    <t>tp_Agree</t>
+  </si>
+  <si>
+    <t>tp_Cons</t>
+  </si>
+  <si>
+    <t>tp_Emo</t>
+  </si>
+  <si>
+    <t>tp_Open</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +502,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -609,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,13 +666,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,14 +1029,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4685,10 +4711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78974200-6D91-42FF-B72D-F3042B01C20A}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4698,10 +4724,10 @@
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="8" width="28.796875" customWidth="1"/>
+    <col min="6" max="9" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4726,8 +4752,11 @@
       <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4752,8 +4781,11 @@
       <c r="H2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4778,8 +4810,11 @@
       <c r="H3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4804,8 +4839,11 @@
       <c r="H4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4830,8 +4868,11 @@
       <c r="H5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4856,8 +4897,11 @@
       <c r="H6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4882,8 +4926,11 @@
       <c r="H7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4908,8 +4955,11 @@
       <c r="H8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -4934,8 +4984,11 @@
       <c r="H9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4960,8 +5013,11 @@
       <c r="H10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4986,8 +5042,11 @@
       <c r="H11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5012,8 +5071,11 @@
       <c r="H12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -5038,8 +5100,11 @@
       <c r="H13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -5064,8 +5129,11 @@
       <c r="H14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -5090,8 +5158,11 @@
       <c r="H15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -5116,8 +5187,11 @@
       <c r="H16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -5142,8 +5216,11 @@
       <c r="H17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -5168,8 +5245,11 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5194,8 +5274,11 @@
       <c r="H19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -5220,8 +5303,11 @@
       <c r="H20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -5246,8 +5332,11 @@
       <c r="H21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -5272,8 +5361,11 @@
       <c r="H22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -5298,8 +5390,11 @@
       <c r="H23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -5324,8 +5419,11 @@
       <c r="H24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -5350,8 +5448,11 @@
       <c r="H25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -5376,8 +5477,11 @@
       <c r="H26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -5402,8 +5506,11 @@
       <c r="H27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5428,8 +5535,11 @@
       <c r="H28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -5454,8 +5564,11 @@
       <c r="H29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5480,8 +5593,11 @@
       <c r="H30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5506,8 +5622,11 @@
       <c r="H31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -5532,8 +5651,11 @@
       <c r="H32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -5558,8 +5680,11 @@
       <c r="H33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -5584,8 +5709,11 @@
       <c r="H34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -5610,8 +5738,11 @@
       <c r="H35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -5636,8 +5767,11 @@
       <c r="H36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -5662,8 +5796,11 @@
       <c r="H37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -5688,8 +5825,11 @@
       <c r="H38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -5714,8 +5854,11 @@
       <c r="H39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -5740,8 +5883,11 @@
       <c r="H40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -5766,8 +5912,11 @@
       <c r="H41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -5792,8 +5941,11 @@
       <c r="H42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -5818,8 +5970,11 @@
       <c r="H43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -5844,8 +5999,11 @@
       <c r="H44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -5870,8 +6028,11 @@
       <c r="H45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -5896,8 +6057,11 @@
       <c r="H46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -5922,8 +6086,11 @@
       <c r="H47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -5948,8 +6115,11 @@
       <c r="H48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -5974,8 +6144,11 @@
       <c r="H49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -6000,8 +6173,11 @@
       <c r="H50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -6026,8 +6202,11 @@
       <c r="H51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -6052,8 +6231,11 @@
       <c r="H52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -6078,8 +6260,11 @@
       <c r="H53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -6104,8 +6289,11 @@
       <c r="H54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -6130,8 +6318,11 @@
       <c r="H55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -6156,8 +6347,11 @@
       <c r="H56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -6182,8 +6376,11 @@
       <c r="H57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -6208,8 +6405,11 @@
       <c r="H58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -6234,8 +6434,11 @@
       <c r="H59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -6260,8 +6463,11 @@
       <c r="H60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -6286,8 +6492,11 @@
       <c r="H61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -6312,8 +6521,11 @@
       <c r="H62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -6338,8 +6550,11 @@
       <c r="H63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -6364,8 +6579,11 @@
       <c r="H64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -6390,8 +6608,11 @@
       <c r="H65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -6416,8 +6637,11 @@
       <c r="H66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -6442,8 +6666,11 @@
       <c r="H67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -6468,8 +6695,11 @@
       <c r="H68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -6494,8 +6724,11 @@
       <c r="H69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -6520,8 +6753,11 @@
       <c r="H70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -6546,8 +6782,11 @@
       <c r="H71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -6572,8 +6811,11 @@
       <c r="H72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -6598,8 +6840,11 @@
       <c r="H73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -6624,8 +6869,11 @@
       <c r="H74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6650,8 +6898,11 @@
       <c r="H75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -6676,8 +6927,11 @@
       <c r="H76" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -6702,8 +6956,11 @@
       <c r="H77" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -6722,14 +6979,17 @@
       <c r="F78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -6754,8 +7014,11 @@
       <c r="H79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -6780,8 +7043,11 @@
       <c r="H80" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -6806,8 +7072,11 @@
       <c r="H81" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -6832,8 +7101,11 @@
       <c r="H82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -6858,8 +7130,11 @@
       <c r="H83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -6884,8 +7159,11 @@
       <c r="H84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -6910,8 +7188,11 @@
       <c r="H85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -6936,8 +7217,11 @@
       <c r="H86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -6959,11 +7243,14 @@
       <c r="G87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H87" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
@@ -6985,83 +7272,240 @@
       <c r="G88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
+      <c r="H88" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H94" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A90" s="8" t="s">
+    <row r="95" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A95" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H95" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+      <c r="I95" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="C91">
+      <c r="C96">
         <v>0.76999490000000004</v>
       </c>
-      <c r="D91">
+      <c r="D96">
         <v>0.77015929999999999</v>
       </c>
-      <c r="E91">
+      <c r="E96">
         <v>0.77016320000000005</v>
       </c>
-      <c r="F91">
+      <c r="F96">
         <v>0.76969670000000001</v>
       </c>
-      <c r="G91">
+      <c r="G96">
         <v>0.77003239999999995</v>
       </c>
-      <c r="H91">
-        <v>0.76956800000000003</v>
+      <c r="H96">
+        <v>0.76911300000000005</v>
+      </c>
+      <c r="I96">
+        <v>0.76947140000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8403,13 +8847,13 @@
       <c r="B78" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D78" t="s">
         <v>90</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8559,10 +9003,10 @@
       <c r="C87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="13" t="s">
+      <c r="D87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8576,10 +9020,10 @@
       <c r="C88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="13" t="s">
+      <c r="D88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8639,10 +9083,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C11D4A-9287-44A2-8202-D3D7392E251D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="E82" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8656,9 +9100,11 @@
     <col min="7" max="7" width="28.09765625" customWidth="1"/>
     <col min="8" max="8" width="23.69921875" customWidth="1"/>
     <col min="9" max="9" width="28.09765625" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" customWidth="1"/>
+    <col min="11" max="11" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8686,8 +9132,14 @@
       <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8715,8 +9167,14 @@
       <c r="I2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -8744,8 +9202,14 @@
       <c r="I3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -8773,8 +9237,14 @@
       <c r="I4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -8802,8 +9272,14 @@
       <c r="I5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -8831,8 +9307,14 @@
       <c r="I6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8860,8 +9342,14 @@
       <c r="I7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8889,8 +9377,14 @@
       <c r="I8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -8918,8 +9412,14 @@
       <c r="I9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -8947,8 +9447,14 @@
       <c r="I10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -8976,8 +9482,14 @@
       <c r="I11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -9005,8 +9517,14 @@
       <c r="I12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -9034,8 +9552,14 @@
       <c r="I13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -9063,8 +9587,14 @@
       <c r="I14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -9092,8 +9622,14 @@
       <c r="I15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -9121,8 +9657,14 @@
       <c r="I16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -9150,8 +9692,14 @@
       <c r="I17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -9179,8 +9727,14 @@
       <c r="I18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -9208,8 +9762,14 @@
       <c r="I19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -9237,8 +9797,14 @@
       <c r="I20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -9266,8 +9832,14 @@
       <c r="I21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -9295,8 +9867,14 @@
       <c r="I22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -9324,8 +9902,14 @@
       <c r="I23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -9353,8 +9937,14 @@
       <c r="I24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -9382,8 +9972,14 @@
       <c r="I25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9411,8 +10007,14 @@
       <c r="I26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -9440,8 +10042,14 @@
       <c r="I27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9469,8 +10077,14 @@
       <c r="I28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -9498,8 +10112,14 @@
       <c r="I29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -9527,8 +10147,14 @@
       <c r="I30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -9556,8 +10182,14 @@
       <c r="I31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -9585,8 +10217,14 @@
       <c r="I32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -9614,8 +10252,14 @@
       <c r="I33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -9643,8 +10287,14 @@
       <c r="I34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -9672,8 +10322,14 @@
       <c r="I35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -9701,8 +10357,14 @@
       <c r="I36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -9730,8 +10392,14 @@
       <c r="I37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -9759,8 +10427,14 @@
       <c r="I38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -9788,8 +10462,14 @@
       <c r="I39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -9817,8 +10497,14 @@
       <c r="I40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -9846,8 +10532,14 @@
       <c r="I41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -9875,8 +10567,14 @@
       <c r="I42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -9904,8 +10602,14 @@
       <c r="I43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -9933,8 +10637,14 @@
       <c r="I44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -9962,8 +10672,14 @@
       <c r="I45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -9991,8 +10707,14 @@
       <c r="I46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -10020,8 +10742,14 @@
       <c r="I47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -10049,8 +10777,14 @@
       <c r="I48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -10078,8 +10812,14 @@
       <c r="I49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -10107,8 +10847,14 @@
       <c r="I50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -10136,8 +10882,14 @@
       <c r="I51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -10165,8 +10917,14 @@
       <c r="I52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -10194,8 +10952,14 @@
       <c r="I53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -10223,8 +10987,14 @@
       <c r="I54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -10252,8 +11022,14 @@
       <c r="I55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -10281,8 +11057,14 @@
       <c r="I56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -10310,8 +11092,14 @@
       <c r="I57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -10339,8 +11127,14 @@
       <c r="I58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -10368,8 +11162,14 @@
       <c r="I59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -10397,8 +11197,14 @@
       <c r="I60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -10426,8 +11232,14 @@
       <c r="I61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -10455,8 +11267,14 @@
       <c r="I62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -10484,8 +11302,14 @@
       <c r="I63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -10513,8 +11337,14 @@
       <c r="I64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -10542,8 +11372,14 @@
       <c r="I65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -10571,8 +11407,14 @@
       <c r="I66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -10600,8 +11442,14 @@
       <c r="I67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+      <c r="K67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -10629,8 +11477,14 @@
       <c r="I68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -10658,8 +11512,14 @@
       <c r="I69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J69" t="s">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -10687,8 +11547,14 @@
       <c r="I70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J70" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -10716,8 +11582,14 @@
       <c r="I71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -10745,8 +11617,14 @@
       <c r="I72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -10774,8 +11652,14 @@
       <c r="I73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -10803,8 +11687,14 @@
       <c r="I74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J74" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -10832,8 +11722,14 @@
       <c r="I75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -10861,8 +11757,14 @@
       <c r="I76" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -10890,8 +11792,14 @@
       <c r="I77" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J77" t="s">
+        <v>91</v>
+      </c>
+      <c r="K77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -10907,20 +11815,26 @@
       <c r="E78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -10948,8 +11862,14 @@
       <c r="I79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J79" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -10977,8 +11897,14 @@
       <c r="I80" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -11006,8 +11932,14 @@
       <c r="I81" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -11035,8 +11967,14 @@
       <c r="I82" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -11064,8 +12002,14 @@
       <c r="I83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J83" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -11093,8 +12037,14 @@
       <c r="I84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -11122,8 +12072,14 @@
       <c r="I85" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -11151,8 +12107,14 @@
       <c r="I86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J86" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -11174,14 +12136,20 @@
       <c r="G87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H87" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
@@ -11203,73 +12171,263 @@
       <c r="G88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H88" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
+      <c r="H88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" t="s">
+        <v>90</v>
+      </c>
+      <c r="K89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J90" t="s">
+        <v>90</v>
+      </c>
+      <c r="K90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s">
+        <v>90</v>
+      </c>
+      <c r="K91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" t="s">
+        <v>90</v>
+      </c>
+      <c r="K92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J93" t="s">
+        <v>90</v>
+      </c>
+      <c r="K93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A90" s="8" t="s">
+      <c r="J94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A95" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I95" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="K95" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C99" s="8">
         <v>0.77857582759999999</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E99" s="8">
         <v>0.77740231640000002</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G99" s="8">
         <v>0.77873184539999996</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I99" s="8">
         <v>0.77790639859999999</v>
       </c>
     </row>
